--- a/scripts/Falling Model/models/tested_100_v2.xlsx
+++ b/scripts/Falling Model/models/tested_100_v2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\ClimbingSafetyWearable\scripts\Falling Model\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04618144-63E3-4D86-AC4C-67E67B4D04A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25C930-0E89-4FCD-AD86-061224B5C809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tested_100" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tested_100!$A$1:$I$196</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
   <si>
     <t>sample</t>
   </si>
@@ -652,6 +655,9 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1142,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1496,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,11 +1515,12 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="2"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,17 +1545,21 @@
       <c r="H1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1568,22 +1580,26 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IF(D2=E2 = -1, 1, 0)</f>
+        <f>IF(D2-E2 = -1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H2">
         <f>IF(D2=E2, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2">
+        <f>IF(B2/(SUM(B2:C2)) &lt; 0, 0, B2/SUM(B2:C2))</f>
+        <v>0.4115121466574102</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>SUM(F2:F196)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1604,22 +1620,26 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">IF(D3=E3 = -1, 1, 0)</f>
+        <f t="shared" ref="G3:G66" si="1">IF(D3-E3 = -1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="2">IF(D3=E3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I66" si="3">IF(B3/(SUM(B3:C3)) &lt; 0, 0, B3/SUM(B3:C3))</f>
+        <v>0.57368270301347091</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>SUM(G2:G196)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1647,19 +1667,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9354866223356989</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>SUM(H2:H196)</f>
         <v>172</v>
       </c>
-      <c r="L4" s="2">
-        <f>K4/COUNT(B2:B196)</f>
+      <c r="M4" s="2">
+        <f>L4/COUNT(B2:B196)</f>
         <v>0.88205128205128203</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1687,8 +1711,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.70204365294156534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1716,8 +1744,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39213881614258106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1745,8 +1777,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38998775739450614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1774,8 +1810,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40179749523771574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1803,8 +1843,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40872940465776963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1832,8 +1876,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40402896256137388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1861,8 +1909,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56053631470774012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1890,8 +1942,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52433740312837651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1919,8 +1975,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43298789925712589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1948,8 +2008,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46676983407625489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1977,8 +2041,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44913697796172997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2006,8 +2074,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41623731622166549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2035,8 +2107,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39934027119465165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2064,8 +2140,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4013934589616156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2093,8 +2173,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39588008894183296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2206,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39766463384230555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2151,8 +2239,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2180,8 +2272,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2209,8 +2305,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2238,8 +2338,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2267,8 +2371,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2296,8 +2404,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2325,8 +2437,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2354,8 +2470,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2383,8 +2503,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2412,8 +2536,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2441,8 +2569,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2470,8 +2602,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2499,8 +2635,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2528,8 +2668,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2557,8 +2701,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2586,8 +2734,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2615,8 +2767,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2644,8 +2800,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2673,8 +2833,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2702,8 +2866,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2731,8 +2899,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2760,8 +2932,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2789,8 +2965,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2818,8 +2998,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2847,8 +3031,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2876,8 +3064,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2905,8 +3097,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2934,8 +3130,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2963,8 +3163,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2992,8 +3196,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40597305965169067</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3021,8 +3229,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46291069833006016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3050,8 +3262,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96579455093272393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3295,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14750046402862868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3108,8 +3328,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51674267632055138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3137,8 +3361,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45066297791024867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3166,8 +3394,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40496989591785804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3195,8 +3427,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41539662744231187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3224,8 +3460,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" s="2">
+        <f t="shared" si="3"/>
+        <v>0.42341379025198089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3253,8 +3493,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" s="2">
+        <f t="shared" si="3"/>
+        <v>0.548010323586272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3282,8 +3526,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53637838607884891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3311,8 +3559,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48133763690313758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3592,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52669668349195131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3369,8 +3625,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52691912193436807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3398,8 +3658,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46803795741207654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3427,8 +3691,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65" s="2">
+        <f t="shared" si="3"/>
+        <v>0.42633500714482847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3456,8 +3724,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44715671314574673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3474,19 +3746,23 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">IF(D67-E67=1, 1, 0)</f>
+        <f t="shared" ref="F67:F130" si="4">IF(D67-E67=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="4">IF(D67=E67 = -1, 1, 0)</f>
+        <f t="shared" ref="G67:G130" si="5">IF(D67-E67 = -1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="5">IF(D67=E67, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H67:H130" si="6">IF(D67=E67, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I130" si="7">IF(B67/(SUM(B67:C67)) &lt; 0, 0, B67/SUM(B67:C67))</f>
+        <v>0.5725356851885719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3503,19 +3779,23 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54400882180747601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3532,19 +3812,23 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3561,19 +3845,23 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3590,19 +3878,23 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3619,19 +3911,23 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3648,19 +3944,23 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3677,19 +3977,23 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5243898474659402E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3706,19 +4010,23 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3735,19 +4043,23 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="7"/>
+        <v>0.70430220266210974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3764,19 +4076,23 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3793,19 +4109,23 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3822,19 +4142,23 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3851,19 +4175,23 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -3880,19 +4208,23 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -3909,19 +4241,23 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -3938,19 +4274,23 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3967,19 +4307,23 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3996,19 +4340,23 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4025,19 +4373,23 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4054,19 +4406,23 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4083,19 +4439,23 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4112,19 +4472,23 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4141,19 +4505,23 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -4170,19 +4538,23 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4199,19 +4571,23 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -4228,19 +4604,23 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -4257,19 +4637,23 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -4286,19 +4670,23 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4315,19 +4703,23 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -4344,19 +4736,23 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -4373,19 +4769,23 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -4402,19 +4802,23 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="7"/>
+        <v>0.46556011295364363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -4431,19 +4835,23 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="7"/>
+        <v>0.99383146578877068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -4460,19 +4868,23 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1724584550933137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -4489,19 +4901,23 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17762760853311982</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -4518,19 +4934,23 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="7"/>
+        <v>0.40870793705148817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -4547,19 +4967,23 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4164740273712183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -4576,19 +5000,23 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39366983959266832</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4605,19 +5033,23 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="7"/>
+        <v>0.57856883699457462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -4634,19 +5066,23 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="7"/>
+        <v>0.43766653669614036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -4663,19 +5099,23 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="7"/>
+        <v>0.5274079974315109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -4692,19 +5132,23 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="7"/>
+        <v>0.46908703958897485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -4721,19 +5165,23 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="7"/>
+        <v>0.48317591188959053</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -4750,19 +5198,23 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="7"/>
+        <v>0.48758365892810707</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -4779,19 +5231,23 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="7"/>
+        <v>0.51496084511355733</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -4808,19 +5264,23 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39394259743648763</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -4837,19 +5297,23 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" si="7"/>
+        <v>0.48269722305495844</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -4866,19 +5330,23 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39386743995558926</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -4895,19 +5363,23 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39122430329386981</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -4924,19 +5396,23 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" si="7"/>
+        <v>0.40119378409021422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -4953,19 +5429,23 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -4982,19 +5462,23 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -5011,19 +5495,23 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -5040,19 +5528,23 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -5069,19 +5561,23 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -5098,19 +5594,23 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -5127,19 +5627,23 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -5156,19 +5660,23 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" si="7"/>
+        <v>0.92672831463609628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -5185,19 +5693,23 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -5214,19 +5726,23 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -5243,19 +5759,23 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -5272,19 +5792,23 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -5301,19 +5825,23 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I130" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -5330,19 +5858,23 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="6">IF(D131-E131=1, 1, 0)</f>
+        <f t="shared" ref="F131:F194" si="8">IF(D131-E131=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="7">IF(D131=E131 = -1, 1, 0)</f>
+        <f t="shared" ref="G131:G194" si="9">IF(D131-E131 = -1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="8">IF(D131=E131, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H131:H194" si="10">IF(D131=E131, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" ref="I131:I194" si="11">IF(B131/(SUM(B131:C131)) &lt; 0, 0, B131/SUM(B131:C131))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -5359,19 +5891,23 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -5388,19 +5924,23 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -5417,19 +5957,23 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -5446,19 +5990,23 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I135" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -5475,19 +6023,23 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I136" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -5504,19 +6056,23 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -5533,19 +6089,23 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -5562,19 +6122,23 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -5591,19 +6155,23 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -5620,19 +6188,23 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -5649,19 +6221,23 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -5678,19 +6254,23 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I143" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -5707,19 +6287,23 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I144" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -5736,19 +6320,23 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -5765,19 +6353,23 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I146" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -5794,19 +6386,23 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I147" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -5823,19 +6419,23 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <f t="shared" si="11"/>
+        <v>0.61161739923549086</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -5852,19 +6452,23 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I149" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25922264572894899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -5881,19 +6485,23 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I150" s="2">
+        <f t="shared" si="11"/>
+        <v>0.95362333680061506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -5910,19 +6518,23 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75934144547125459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -5939,19 +6551,23 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <f t="shared" si="11"/>
+        <v>0.40965958132816144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -5968,19 +6584,23 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I153" s="2">
+        <f t="shared" si="11"/>
+        <v>0.43226543543851853</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -5997,19 +6617,23 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I154" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39651958401600207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -6026,19 +6650,23 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <f t="shared" si="11"/>
+        <v>0.40265149918542148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -6055,19 +6683,23 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I156" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39912222714462064</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -6084,19 +6716,23 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I157" s="2">
+        <f t="shared" si="11"/>
+        <v>0.29419735959195559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -6113,19 +6749,23 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54942974813169221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -6142,19 +6782,23 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <f t="shared" si="11"/>
+        <v>0.46921362709983094</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -6171,19 +6815,23 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <f t="shared" si="11"/>
+        <v>0.51992923406850444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -6200,19 +6848,23 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45768528710655221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -6229,19 +6881,23 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I162" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39748645850292286</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -6258,19 +6914,23 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I163" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39396778083241707</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -6287,19 +6947,23 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I164" s="2">
+        <f t="shared" si="11"/>
+        <v>0.41347891464106373</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -6316,19 +6980,23 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I165" s="2">
+        <f t="shared" si="11"/>
+        <v>0.40217217368970698</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -6345,19 +7013,23 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I166" s="2">
+        <f t="shared" si="11"/>
+        <v>0.3999970591589771</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -6374,19 +7046,23 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I167" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -6403,19 +7079,23 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I168" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -6432,19 +7112,23 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I169" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -6461,19 +7145,23 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I170" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -6490,19 +7178,23 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I171" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -6519,19 +7211,23 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I172" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -6548,19 +7244,23 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I173" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -6577,19 +7277,23 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I174" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -6606,19 +7310,23 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G175">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H175">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <f t="shared" si="11"/>
+        <v>0.4607411056854136</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -6635,19 +7343,23 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I176" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25299153674719133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -6664,19 +7376,23 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -6693,19 +7409,23 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I178" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -6722,19 +7442,23 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I179" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -6751,19 +7475,23 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I180" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -6780,19 +7508,23 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -6809,19 +7541,23 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I182" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -6838,19 +7574,23 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -6867,19 +7607,23 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I184" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -6896,19 +7640,23 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I185" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -6925,19 +7673,23 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I186" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -6954,19 +7706,23 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I187" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -6983,19 +7739,23 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I188" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -7012,19 +7772,23 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I189" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -7041,19 +7805,23 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I190" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -7070,19 +7838,23 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I191" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -7099,19 +7871,23 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I192" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -7128,19 +7904,23 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I193" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -7157,19 +7937,23 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I194" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -7186,19 +7970,23 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F196" si="9">IF(D195-E195=1, 1, 0)</f>
+        <f t="shared" ref="F195:F196" si="12">IF(D195-E195=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G196" si="10">IF(D195=E195 = -1, 1, 0)</f>
+        <f t="shared" ref="G195:G196" si="13">IF(D195-E195 = -1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H196" si="11">IF(D195=E195, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H195:H196" si="14">IF(D195=E195, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I195" s="2">
+        <f t="shared" ref="I195:I196" si="15">IF(B195/(SUM(B195:C195)) &lt; 0, 0, B195/SUM(B195:C195))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -7215,19 +8003,34 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I196" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I196" xr:uid="{D2D45C21-ADD2-4A67-A862-8A9D133FCBE3}"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
